--- a/biology/Biochimie/Baume_du_Canada/Baume_du_Canada.xlsx
+++ b/biology/Biochimie/Baume_du_Canada/Baume_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baume du Canada, appelé aussi térébenthine du Canada ou gomme de sapin, est une térébenthine issue de la résine du sapin baumier.
 La résine, dissoute dans des huiles essentielles, est visqueuse, collante et incolore (parfois jaunâtre) après évaporation des huiles essentielles.
@@ -489,7 +501,7 @@
 en biologie pour conserver des échantillons de microscopie, en particulier pour des montages pérennes ;
 pour réparer des fissures sur le verre (comme des pare-brise) ;
 en peinture à l'huile.
-Aujourd'hui, il est principalement remplacé dans ces applications par les résines polyacryliques[1], mais est toujours utilisé pour le collage des lamelles en microscopie optique (minéralogie).
+Aujourd'hui, il est principalement remplacé dans ces applications par les résines polyacryliques, mais est toujours utilisé pour le collage des lamelles en microscopie optique (minéralogie).
 </t>
         </is>
       </c>
